--- a/static/doc/excel/template_data_karyawan.xlsx
+++ b/static/doc/excel/template_data_karyawan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\project_winnicode_absensi\static\doc\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E873A00C-751A-470B-B293-A9CAFB285458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAC7824-6300-4834-95F8-4527660B3BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Karyawan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Data Karyawan PT Winnicode Garuda Teknologi</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Waktu Selesai kerja</t>
+  </si>
+  <si>
+    <t>Telat</t>
+  </si>
+  <si>
+    <t>Cuti</t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,26 +134,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -157,23 +154,23 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,98 +477,105 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="Q2" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>

--- a/static/doc/excel/template_data_karyawan.xlsx
+++ b/static/doc/excel/template_data_karyawan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\project_winnicode_absensi\static\doc\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAC7824-6300-4834-95F8-4527660B3BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64850C27-8BC1-4F9B-B949-ECCEDC043CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,9 +89,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
@@ -99,7 +100,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF3399"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -152,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,8 +168,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -169,7 +183,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -178,6 +192,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -477,10 +496,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,83 +522,83 @@
     <col min="16" max="16" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>